--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44076.69513888889</v>
+        <v>44076.69512731482</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>13.45</v>
@@ -1663,7 +1663,7 @@
         <v>1.51</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>20.79</v>
+        <v>20.78</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>8.58</v>
@@ -1681,117 +1681,13 @@
         <v>0.21</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>39.57</v>
+        <v>39.56</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>5.48</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>12.15</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>37.62</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>30.94</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>52.54</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>198.69</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>37.84</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>25.56</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>15.62</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>3.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.89</v>
+        <v>3.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>4.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>21.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>4.08</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>4.12</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.54</v>
+        <v>4.05</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.87</v>
+        <v>3.29</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.43</v>
+        <v>5.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.85</v>
+        <v>0.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.7</v>
+        <v>2.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.02</v>
+        <v>4.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.28</v>
+        <v>2.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.55</v>
+        <v>2.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.32</v>
+        <v>5.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>1.35</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>30.54</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>53.51</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>20.94</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>13.53</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.7</v>
+        <v>19.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.88</v>
+        <v>3.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>25.82</v>
+        <v>2.58</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>36.52</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>51.98</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>11.17</v>
-      </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.97</v>
+        <v>19.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.82</v>
+        <v>3.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.66</v>
+        <v>2.47</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.15</v>
+        <v>4.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44076.66041666667</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>30.75</v>
+        <v>3.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>53.23</v>
+        <v>5.32</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.25</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>37.86</v>
+        <v>3.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.77</v>
+        <v>2.58</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>48.29</v>
+        <v>4.83</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44076.66736111111</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>41.78</v>
+        <v>4.18</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.27</v>
+        <v>3.43</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>58.81</v>
+        <v>5.88</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.33</v>
+        <v>1.53</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.65</v>
+        <v>1.26</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>221.59</v>
+        <v>22.16</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.06</v>
+        <v>4.21</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.3</v>
+        <v>2.83</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.56</v>
+        <v>2.86</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>53.36</v>
+        <v>5.34</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>45.97</v>
+        <v>4.6</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>37.76</v>
+        <v>3.78</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>64.77</v>
+        <v>6.48</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>46.27</v>
+        <v>4.63</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.18</v>
+        <v>3.12</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.47</v>
+        <v>3.15</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>58.79</v>
+        <v>5.88</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>24.98</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>54.33</v>
+        <v>5.43</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>44.71</v>
+        <v>4.47</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>19.66</v>
+        <v>1.97</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>76.34</v>
+        <v>7.63</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>30.25</v>
+        <v>3.02</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>20.08</v>
+        <v>2.01</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>27.9</v>
+        <v>2.79</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>290.27</v>
+        <v>29.03</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>54.68</v>
+        <v>5.47</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>18.05</v>
+        <v>1.8</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>36.9</v>
+        <v>3.69</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>37.16</v>
+        <v>3.72</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>15.94</v>
+        <v>1.59</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>22.9</v>
+        <v>2.29</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>69.29000000000001</v>
+        <v>6.93</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.18</v>
+        <v>2.02</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>43.88</v>
+        <v>4.39</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>36.09</v>
+        <v>3.61</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>63.29</v>
+        <v>6.33</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>24.43</v>
+        <v>2.44</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>233.04</v>
+        <v>23.3</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>44.2</v>
+        <v>4.42</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>30.52</v>
+        <v>3.05</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>18.5</v>
+        <v>1.85</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>57.48</v>
+        <v>5.75</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,25 +443,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44076.63263888889</v>
+        <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>1.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.98</v>
+        <v>2.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.19</v>
+        <v>1.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.65</v>
+        <v>2.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.27</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.47</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X2" s="4" t="n">
+      <c r="Z2" s="4" t="n">
         <v>1.36</v>
       </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.36</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.76</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>2.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44076.63958333333</v>
+        <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.05</v>
+        <v>2.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.29</v>
+        <v>1.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.8</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.64</v>
+        <v>3.11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.27</v>
+        <v>1.28</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.7</v>
-      </c>
       <c r="N3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.47</v>
+        <v>0.83</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.07</v>
+        <v>1.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>5.13</v>
+        <v>2.85</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44076.64652777778</v>
+        <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.77</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.35</v>
+        <v>3.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.51</v>
-      </c>
       <c r="M4" s="4" t="n">
-        <v>1.58</v>
+        <v>0.99</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.83</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.72</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.87</v>
+        <v>11.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>2.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.53</v>
+        <v>1.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.58</v>
+        <v>1.6</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.72</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.57</v>
+        <v>0.97</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.86</v>
+        <v>2.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44076.65347222222</v>
+        <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.68</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.65</v>
+        <v>2.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.98</v>
+        <v>1.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="N5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.47</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.51</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.55</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.72</v>
+        <v>2.73</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44076.66041666667</v>
+        <v>44076.61875</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.73</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.27</v>
+        <v>6.34</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.76</v>
+        <v>18.8</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.08</v>
+        <v>15.03</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.36</v>
+        <v>6.68</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.32</v>
+        <v>27.18</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.09</v>
+        <v>10.44</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.93</v>
+        <v>4.65</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.37</v>
+        <v>6.62</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.51</v>
+        <v>7.54</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.59</v>
+        <v>8.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.43</v>
+        <v>2.06</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.35</v>
+        <v>6.77</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.92</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.14</v>
+        <v>5.85</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>19.87</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.79</v>
+        <v>18.95</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.25</v>
+        <v>6.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.54</v>
+        <v>12.58</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.33</v>
+        <v>6.61</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.2</v>
+        <v>1.03</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.58</v>
+        <v>13.26</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.1</v>
+        <v>5.52</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.98</v>
+        <v>4.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.15</v>
+        <v>5.82</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.58</v>
+        <v>7.93</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.83</v>
+        <v>24.72</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.7</v>
+        <v>3.44</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44076.66736111111</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44076.67430555556</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44076.68125</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>29.03</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44076.68819444445</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44076.69512731482</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>152.92</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>19.87</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>39.56</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>12.15</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -443,10 +443,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -454,14 +454,14 @@
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -655,103 +655,103 @@
         <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.36</v>
+        <v>23.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.42</v>
+        <v>124.22</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.83</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.96</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.6</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.29</v>
+        <v>22.9</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.11</v>
+        <v>31.09</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.14</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.3</v>
+        <v>22.96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.5</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3</v>
+        <v>30.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.73</v>
+        <v>27.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,13 +655,13 @@
         <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.726</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>23.56</v>
@@ -670,88 +670,88 @@
         <v>17.15</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.23</v>
+        <v>24.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.35</v>
+        <v>13.347</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.32</v>
+        <v>7.323</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.19</v>
+        <v>10.191</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>2.44</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.96</v>
+        <v>7.955</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>2.648</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.093</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>124.22</v>
+        <v>124.223</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.83</v>
+        <v>23.834</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.96</v>
+        <v>14.964</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.048999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.19</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.6</v>
+        <v>13.597</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>7.05</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.63</v>
+        <v>6.629</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.942</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>2.682</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.63</v>
+        <v>21.628</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.08</v>
+        <v>4.075</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.35</v>
+        <v>10.352</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.51</v>
+        <v>7.506</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.56</v>
+        <v>1.556</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.9</v>
+        <v>22.904</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.71</v>
+        <v>17.707</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.02</v>
+        <v>8.023999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.09</v>
+        <v>31.086</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.77</v>
+        <v>12.767</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.48</v>
+        <v>5.481</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.662</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.9</v>
+        <v>9.903</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.436</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.49</v>
+        <v>11.494</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.39</v>
+        <v>7.389</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.286</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.57</v>
+        <v>118.567</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.14</v>
+        <v>23.141</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.06</v>
+        <v>15.062</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.934</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.494</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.19</v>
+        <v>6.192</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.22</v>
+        <v>7.216</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>9.641999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.136</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.5</v>
+        <v>28.502</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.08</v>
+        <v>4.077</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.406</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.67</v>
+        <v>7.668</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>1.103</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.96</v>
+        <v>22.957</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.14</v>
+        <v>18.144</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.113</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>32.37</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.77</v>
+        <v>12.769</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.61</v>
+        <v>5.607</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.195</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.492</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.6</v>
+        <v>11.597</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.238</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.886</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.473</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.57</v>
+        <v>118.566</v>
       </c>
       <c r="U4" s="4" t="n">
         <v>23.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.26</v>
+        <v>15.257</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.02</v>
+        <v>8.023</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.338</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.02</v>
+        <v>16.025</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.11</v>
+        <v>6.111</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>7.15</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.67</v>
+        <v>9.673</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.5</v>
+        <v>29.497</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.16</v>
+        <v>4.159</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.68000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.48</v>
+        <v>9.477</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.02</v>
+        <v>7.022</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.866</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.88</v>
+        <v>20.883</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.63</v>
+        <v>16.632</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.404</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.02</v>
+        <v>30.017</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.61</v>
+        <v>11.606</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.14</v>
+        <v>5.145</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.31</v>
+        <v>7.307</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.371</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.988</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.28</v>
+        <v>2.283</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.58</v>
+        <v>10.578</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.53</v>
+        <v>6.529</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.12</v>
+        <v>107.122</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.05</v>
+        <v>21.052</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.95</v>
+        <v>13.946</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.32</v>
+        <v>7.324</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.169</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>14.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.529</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.48</v>
+        <v>6.477</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.529</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.32</v>
+        <v>27.317</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.81</v>
+        <v>3.808</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.61875</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.68000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_16.xlsx
+++ b/DATA_goal/Junction_Flooding_16.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.477</v>
+        <v>9.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.022</v>
+        <v>7.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.883</v>
+        <v>20.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.632</v>
+        <v>16.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.404</v>
+        <v>7.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.017</v>
+        <v>30.02</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.606</v>
+        <v>11.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.145</v>
+        <v>5.14</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.307</v>
+        <v>7.31</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.371</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.988</v>
+        <v>8.99</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.283</v>
+        <v>2.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.578</v>
+        <v>10.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.529</v>
+        <v>6.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.122</v>
+        <v>107.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.052</v>
+        <v>21.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.946</v>
+        <v>13.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.324</v>
+        <v>7.32</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.169</v>
+        <v>1.17</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>14.7</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.529</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.477</v>
+        <v>6.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.803000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.317</v>
+        <v>27.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.808</v>
+        <v>3.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.677</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.68000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.81</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
